--- a/out/CE/FigA_5.xlsx
+++ b/out/CE/FigA_5.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF71C696-5C0E-444B-9BF3-E62123DE4C05}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.83733999999999997</v>
+        <v>0.82362999999999997</v>
       </c>
       <c r="B1">
-        <v>0.80737000000000003</v>
+        <v>0.83530000000000004</v>
       </c>
       <c r="C1">
-        <v>0.82235499999999995</v>
+        <v>0.82384000000000002</v>
+      </c>
+      <c r="D1">
+        <v>0.82969000000000004</v>
+      </c>
+      <c r="E1">
+        <v>0.82664000000000004</v>
+      </c>
+      <c r="F1">
+        <v>0.83401999999999998</v>
+      </c>
+      <c r="G1">
+        <v>0.80674999999999997</v>
+      </c>
+      <c r="H1">
+        <v>0.80232999999999999</v>
+      </c>
+      <c r="I1">
+        <v>0.81496000000000002</v>
+      </c>
+      <c r="J1">
+        <v>0.82782999999999995</v>
+      </c>
+      <c r="K1">
+        <v>0.83703000000000005</v>
+      </c>
+      <c r="L1">
+        <v>0.82396000000000003</v>
+      </c>
+      <c r="M1">
+        <v>0.81315999999999999</v>
+      </c>
+      <c r="N1">
+        <v>0.81957000000000002</v>
+      </c>
+      <c r="O1">
+        <v>0.83121999999999996</v>
+      </c>
+      <c r="P1">
+        <v>0.82811000000000001</v>
+      </c>
+      <c r="Q1">
+        <v>0.84174000000000004</v>
+      </c>
+      <c r="R1">
+        <v>0.81406999999999996</v>
+      </c>
+      <c r="S1">
+        <v>0.82955000000000001</v>
+      </c>
+      <c r="T1">
+        <v>0.82332000000000005</v>
+      </c>
+      <c r="U1">
+        <v>0.82387999999999995</v>
+      </c>
+      <c r="V1">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="W1">
+        <v>0.83182999999999996</v>
+      </c>
+      <c r="X1">
+        <v>0.82</v>
+      </c>
+      <c r="Y1">
+        <v>0.83716000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.82979000000000003</v>
+      </c>
+      <c r="AA1">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="AB1">
+        <v>0.84208000000000005</v>
+      </c>
+      <c r="AC1">
+        <v>0.81728000000000001</v>
+      </c>
+      <c r="AD1">
+        <v>0.80391000000000001</v>
+      </c>
+      <c r="AE1">
+        <v>0.80208999999999997</v>
+      </c>
+      <c r="AF1">
+        <v>0.83121</v>
+      </c>
+      <c r="AG1">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="AH1">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AI1">
+        <v>0.82472000000000001</v>
+      </c>
+      <c r="AJ1">
+        <v>0.79915000000000003</v>
+      </c>
+      <c r="AK1">
+        <v>0.84035000000000004</v>
+      </c>
+      <c r="AL1">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="AM1">
+        <v>0.82645000000000002</v>
+      </c>
+      <c r="AN1">
+        <v>0.82954000000000006</v>
+      </c>
+      <c r="AO1">
+        <v>0.81335999999999997</v>
+      </c>
+      <c r="AP1">
+        <v>0.83150999999999997</v>
+      </c>
+      <c r="AQ1">
+        <v>0.81876000000000004</v>
+      </c>
+      <c r="AR1">
+        <v>0.82557000000000003</v>
+      </c>
+      <c r="AS1">
+        <v>0.83642000000000005</v>
+      </c>
+      <c r="AT1">
+        <v>0.80766000000000004</v>
+      </c>
+      <c r="AU1">
+        <v>0.81947000000000003</v>
+      </c>
+      <c r="AV1">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="AW1">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="AX1">
+        <v>0.83733000000000002</v>
+      </c>
+      <c r="AY1">
+        <v>0.83335000000000004</v>
+      </c>
+      <c r="AZ1">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="BA1">
+        <v>0.78759000000000001</v>
+      </c>
+      <c r="BB1">
+        <v>0.82091999999999998</v>
+      </c>
+      <c r="BC1">
+        <v>0.83909999999999996</v>
+      </c>
+      <c r="BD1">
+        <v>0.84075</v>
+      </c>
+      <c r="BE1">
+        <v>0.82616000000000001</v>
+      </c>
+      <c r="BF1">
+        <v>0.84252000000000005</v>
+      </c>
+      <c r="BG1">
+        <v>0.82677</v>
+      </c>
+      <c r="BH1">
+        <v>0.84257000000000004</v>
+      </c>
+      <c r="BI1">
+        <v>0.81781000000000004</v>
+      </c>
+      <c r="BJ1">
+        <v>0.80950999999999995</v>
+      </c>
+      <c r="BK1">
+        <v>0.81864999999999999</v>
+      </c>
+      <c r="BL1">
+        <v>0.80503000000000002</v>
+      </c>
+      <c r="BM1">
+        <v>0.81655999999999995</v>
+      </c>
+      <c r="BN1">
+        <v>0.82338</v>
+      </c>
+      <c r="BO1">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="BP1">
+        <v>0.82338</v>
+      </c>
+      <c r="BQ1">
+        <v>0.80213999999999996</v>
+      </c>
+      <c r="BR1">
+        <v>0.81503000000000003</v>
+      </c>
+      <c r="BS1">
+        <v>0.81955999999999996</v>
+      </c>
+      <c r="BT1">
+        <v>0.77771999999999997</v>
+      </c>
+      <c r="BU1">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="BV1">
+        <v>0.82701000000000002</v>
+      </c>
+      <c r="BW1">
+        <v>0.82852999999999999</v>
+      </c>
+      <c r="BX1">
+        <v>0.83735999999999999</v>
+      </c>
+      <c r="BY1">
+        <v>0.84760999999999997</v>
+      </c>
+      <c r="BZ1">
+        <v>0.83975999999999995</v>
+      </c>
+      <c r="CA1">
+        <v>0.83079000000000003</v>
+      </c>
+      <c r="CB1">
+        <v>0.82447000000000004</v>
+      </c>
+      <c r="CC1">
+        <v>0.83787999999999996</v>
+      </c>
+      <c r="CD1">
+        <v>0.83503000000000005</v>
+      </c>
+      <c r="CE1">
+        <v>0.83306000000000002</v>
+      </c>
+      <c r="CF1">
+        <v>0.81655</v>
+      </c>
+      <c r="CG1">
+        <v>0.84524999999999995</v>
+      </c>
+      <c r="CH1">
+        <v>0.84553</v>
+      </c>
+      <c r="CI1">
+        <v>0.81088000000000005</v>
+      </c>
+      <c r="CJ1">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="CK1">
+        <v>0.83687999999999996</v>
+      </c>
+      <c r="CL1">
+        <v>0.81747999999999998</v>
+      </c>
+      <c r="CM1">
+        <v>0.82657000000000003</v>
+      </c>
+      <c r="CN1">
+        <v>0.80359000000000003</v>
+      </c>
+      <c r="CO1">
+        <v>0.83348999999999995</v>
+      </c>
+      <c r="CP1">
+        <v>0.80171000000000003</v>
+      </c>
+      <c r="CQ1">
+        <v>0.83138000000000001</v>
+      </c>
+      <c r="CR1">
+        <v>0.80647000000000002</v>
+      </c>
+      <c r="CS1">
+        <v>0.81608000000000003</v>
+      </c>
+      <c r="CT1">
+        <v>0.81633</v>
+      </c>
+      <c r="CU1">
+        <v>0.79927000000000004</v>
+      </c>
+      <c r="CV1">
+        <v>0.83313000000000004</v>
+      </c>
+      <c r="CW1">
+        <v>0.82390930000000007</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.82970999999999995</v>
+        <v>0.81579000000000002</v>
       </c>
       <c r="B2">
+        <v>0.83433000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.83287</v>
+      </c>
+      <c r="D2">
+        <v>0.8246</v>
+      </c>
+      <c r="E2">
+        <v>0.80242999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.84745999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.82177</v>
+      </c>
+      <c r="H2">
+        <v>0.83240999999999998</v>
+      </c>
+      <c r="I2">
+        <v>0.80705000000000005</v>
+      </c>
+      <c r="J2">
+        <v>0.81464999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.81889999999999996</v>
+      </c>
+      <c r="L2">
+        <v>0.81935000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.82647000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0.82913999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.83879000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.81933999999999996</v>
+      </c>
+      <c r="Q2">
+        <v>0.79693000000000003</v>
+      </c>
+      <c r="R2">
+        <v>0.82757000000000003</v>
+      </c>
+      <c r="S2">
+        <v>0.83989999999999998</v>
+      </c>
+      <c r="T2">
+        <v>0.82355999999999996</v>
+      </c>
+      <c r="U2">
+        <v>0.81855999999999995</v>
+      </c>
+      <c r="V2">
+        <v>0.82177999999999995</v>
+      </c>
+      <c r="W2">
+        <v>0.83087999999999995</v>
+      </c>
+      <c r="X2">
+        <v>0.80418000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>0.82194</v>
+      </c>
+      <c r="Z2">
+        <v>0.80725999999999998</v>
+      </c>
+      <c r="AA2">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="AB2">
+        <v>0.79732000000000003</v>
+      </c>
+      <c r="AC2">
+        <v>0.82748999999999995</v>
+      </c>
+      <c r="AD2">
+        <v>0.80564999999999998</v>
+      </c>
+      <c r="AE2">
+        <v>0.80952000000000002</v>
+      </c>
+      <c r="AF2">
+        <v>0.83504999999999996</v>
+      </c>
+      <c r="AG2">
+        <v>0.81545000000000001</v>
+      </c>
+      <c r="AH2">
+        <v>0.81125999999999998</v>
+      </c>
+      <c r="AI2">
         <v>0.81684000000000001</v>
       </c>
-      <c r="C2">
-        <v>0.82327499999999998</v>
+      <c r="AJ2">
+        <v>0.84572999999999998</v>
+      </c>
+      <c r="AK2">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="AL2">
+        <v>0.83159000000000005</v>
+      </c>
+      <c r="AM2">
+        <v>0.82074999999999998</v>
+      </c>
+      <c r="AN2">
+        <v>0.82623000000000002</v>
+      </c>
+      <c r="AO2">
+        <v>0.82186000000000003</v>
+      </c>
+      <c r="AP2">
+        <v>0.8115</v>
+      </c>
+      <c r="AQ2">
+        <v>0.81559000000000004</v>
+      </c>
+      <c r="AR2">
+        <v>0.81164999999999998</v>
+      </c>
+      <c r="AS2">
+        <v>0.83614999999999995</v>
+      </c>
+      <c r="AT2">
+        <v>0.82701000000000002</v>
+      </c>
+      <c r="AU2">
+        <v>0.8125</v>
+      </c>
+      <c r="AV2">
+        <v>0.81452000000000002</v>
+      </c>
+      <c r="AW2">
+        <v>0.81896999999999998</v>
+      </c>
+      <c r="AX2">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>0.83489000000000002</v>
+      </c>
+      <c r="AZ2">
+        <v>0.82618999999999998</v>
+      </c>
+      <c r="BA2">
+        <v>0.83065</v>
+      </c>
+      <c r="BB2">
+        <v>0.81976000000000004</v>
+      </c>
+      <c r="BC2">
+        <v>0.82945000000000002</v>
+      </c>
+      <c r="BD2">
+        <v>0.80273000000000005</v>
+      </c>
+      <c r="BE2">
+        <v>0.82152000000000003</v>
+      </c>
+      <c r="BF2">
+        <v>0.82142000000000004</v>
+      </c>
+      <c r="BG2">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="BH2">
+        <v>0.81550999999999996</v>
+      </c>
+      <c r="BI2">
+        <v>0.81411999999999995</v>
+      </c>
+      <c r="BJ2">
+        <v>0.81967000000000001</v>
+      </c>
+      <c r="BK2">
+        <v>0.82647999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.83821000000000001</v>
+      </c>
+      <c r="BM2">
+        <v>0.82652000000000003</v>
+      </c>
+      <c r="BN2">
+        <v>0.84177999999999997</v>
+      </c>
+      <c r="BO2">
+        <v>0.81308999999999998</v>
+      </c>
+      <c r="BP2">
+        <v>0.84572999999999998</v>
+      </c>
+      <c r="BQ2">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="BR2">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="BS2">
+        <v>0.82452000000000003</v>
+      </c>
+      <c r="BT2">
+        <v>0.82516</v>
+      </c>
+      <c r="BU2">
+        <v>0.83133000000000001</v>
+      </c>
+      <c r="BV2">
+        <v>0.81825999999999999</v>
+      </c>
+      <c r="BW2">
+        <v>0.82494000000000001</v>
+      </c>
+      <c r="BX2">
+        <v>0.81813000000000002</v>
+      </c>
+      <c r="BY2">
+        <v>0.81633999999999995</v>
+      </c>
+      <c r="BZ2">
+        <v>0.82028000000000001</v>
+      </c>
+      <c r="CA2">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="CB2">
+        <v>0.82674000000000003</v>
+      </c>
+      <c r="CC2">
+        <v>0.82854000000000005</v>
+      </c>
+      <c r="CD2">
+        <v>0.82281000000000004</v>
+      </c>
+      <c r="CE2">
+        <v>0.81560999999999995</v>
+      </c>
+      <c r="CF2">
+        <v>0.82382999999999995</v>
+      </c>
+      <c r="CG2">
+        <v>0.82376000000000005</v>
+      </c>
+      <c r="CH2">
+        <v>0.84021000000000001</v>
+      </c>
+      <c r="CI2">
+        <v>0.82733000000000001</v>
+      </c>
+      <c r="CJ2">
+        <v>0.82206999999999997</v>
+      </c>
+      <c r="CK2">
+        <v>0.80850999999999995</v>
+      </c>
+      <c r="CL2">
+        <v>0.82352999999999998</v>
+      </c>
+      <c r="CM2">
+        <v>0.83142000000000005</v>
+      </c>
+      <c r="CN2">
+        <v>0.82452999999999999</v>
+      </c>
+      <c r="CO2">
+        <v>0.79944000000000004</v>
+      </c>
+      <c r="CP2">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="CQ2">
+        <v>0.83177000000000001</v>
+      </c>
+      <c r="CR2">
+        <v>0.81247000000000003</v>
+      </c>
+      <c r="CS2">
+        <v>0.82096000000000002</v>
+      </c>
+      <c r="CT2">
+        <v>0.79569999999999996</v>
+      </c>
+      <c r="CU2">
+        <v>0.81606999999999996</v>
+      </c>
+      <c r="CV2">
+        <v>0.84345999999999999</v>
+      </c>
+      <c r="CW2">
+        <v>0.82197379999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.82328000000000001</v>
+      </c>
+      <c r="B3">
+        <v>0.82382</v>
+      </c>
+      <c r="C3">
+        <v>0.81996999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.83303000000000005</v>
+      </c>
+      <c r="E3">
+        <v>0.79947999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.80273000000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.82626999999999995</v>
+      </c>
+      <c r="H3">
+        <v>0.79291</v>
+      </c>
+      <c r="I3">
+        <v>0.79908000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.82116</v>
+      </c>
+      <c r="K3">
+        <v>0.82003999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.79393999999999998</v>
+      </c>
+      <c r="M3">
+        <v>0.80128999999999995</v>
+      </c>
+      <c r="N3">
+        <v>0.80739000000000005</v>
+      </c>
+      <c r="O3">
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.81688000000000005</v>
+      </c>
+      <c r="Q3">
+        <v>0.82340999999999998</v>
+      </c>
+      <c r="R3">
+        <v>0.79881999999999997</v>
+      </c>
+      <c r="S3">
+        <v>0.80613999999999997</v>
+      </c>
+      <c r="T3">
+        <v>0.82321999999999995</v>
+      </c>
+      <c r="U3">
+        <v>0.79559999999999997</v>
+      </c>
+      <c r="V3">
+        <v>0.80694999999999995</v>
+      </c>
+      <c r="W3">
+        <v>0.83555000000000001</v>
+      </c>
+      <c r="X3">
+        <v>0.80601</v>
+      </c>
+      <c r="Y3">
+        <v>0.80508999999999997</v>
+      </c>
+      <c r="Z3">
+        <v>0.81691999999999998</v>
+      </c>
+      <c r="AA3">
+        <v>0.8175</v>
+      </c>
+      <c r="AB3">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>0.81664000000000003</v>
+      </c>
+      <c r="AD3">
+        <v>0.81167999999999996</v>
+      </c>
+      <c r="AE3">
+        <v>0.83306999999999998</v>
+      </c>
+      <c r="AF3">
+        <v>0.82743999999999995</v>
+      </c>
+      <c r="AG3">
+        <v>0.81481999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="AI3">
+        <v>0.82511999999999996</v>
+      </c>
+      <c r="AJ3">
+        <v>0.77176</v>
+      </c>
+      <c r="AK3">
+        <v>0.83791000000000004</v>
+      </c>
+      <c r="AL3">
+        <v>0.82554000000000005</v>
+      </c>
+      <c r="AM3">
+        <v>0.81593000000000004</v>
+      </c>
+      <c r="AN3">
+        <v>0.80474999999999997</v>
+      </c>
+      <c r="AO3">
+        <v>0.81871000000000005</v>
+      </c>
+      <c r="AP3">
+        <v>0.83152999999999999</v>
+      </c>
+      <c r="AQ3">
+        <v>0.80035000000000001</v>
+      </c>
+      <c r="AR3">
+        <v>0.80235000000000001</v>
+      </c>
+      <c r="AS3">
+        <v>0.81093000000000004</v>
+      </c>
+      <c r="AT3">
+        <v>0.81667999999999996</v>
+      </c>
+      <c r="AU3">
+        <v>0.83401999999999998</v>
+      </c>
+      <c r="AV3">
+        <v>0.82040999999999997</v>
+      </c>
+      <c r="AW3">
+        <v>0.79278999999999999</v>
+      </c>
+      <c r="AX3">
+        <v>0.81362000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>0.80410999999999999</v>
+      </c>
+      <c r="AZ3">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="BA3">
+        <v>0.81828000000000001</v>
+      </c>
+      <c r="BB3">
+        <v>0.81894</v>
+      </c>
+      <c r="BC3">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="BD3">
+        <v>0.79915000000000003</v>
+      </c>
+      <c r="BE3">
+        <v>0.79259999999999997</v>
+      </c>
+      <c r="BF3">
+        <v>0.81181000000000003</v>
+      </c>
+      <c r="BG3">
+        <v>0.80483000000000005</v>
+      </c>
+      <c r="BH3">
+        <v>0.83194999999999997</v>
+      </c>
+      <c r="BI3">
+        <v>0.80354000000000003</v>
+      </c>
+      <c r="BJ3">
+        <v>0.80869000000000002</v>
+      </c>
+      <c r="BK3">
+        <v>0.79420999999999997</v>
+      </c>
+      <c r="BL3">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="BM3">
+        <v>0.80444000000000004</v>
+      </c>
+      <c r="BN3">
+        <v>0.79401999999999995</v>
+      </c>
+      <c r="BO3">
+        <v>0.81311999999999995</v>
+      </c>
+      <c r="BP3">
+        <v>0.81296000000000002</v>
+      </c>
+      <c r="BQ3">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="BR3">
+        <v>0.81503999999999999</v>
+      </c>
+      <c r="BS3">
+        <v>0.79742000000000002</v>
+      </c>
+      <c r="BT3">
+        <v>0.83386000000000005</v>
+      </c>
+      <c r="BU3">
+        <v>0.82633000000000001</v>
+      </c>
+      <c r="BV3">
+        <v>0.82126999999999994</v>
+      </c>
+      <c r="BW3">
+        <v>0.81972</v>
+      </c>
+      <c r="BX3">
+        <v>0.81144000000000005</v>
+      </c>
+      <c r="BY3">
+        <v>0.81140999999999996</v>
+      </c>
+      <c r="BZ3">
+        <v>0.83374999999999999</v>
+      </c>
+      <c r="CA3">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="CB3">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="CC3">
+        <v>0.80344000000000004</v>
+      </c>
+      <c r="CD3">
+        <v>0.82862000000000002</v>
+      </c>
+      <c r="CE3">
+        <v>0.80659000000000003</v>
+      </c>
+      <c r="CF3">
+        <v>0.83191000000000004</v>
+      </c>
+      <c r="CG3">
+        <v>0.81840999999999997</v>
+      </c>
+      <c r="CH3">
+        <v>0.81513999999999998</v>
+      </c>
+      <c r="CI3">
+        <v>0.83170999999999995</v>
+      </c>
+      <c r="CJ3">
+        <v>0.83126999999999995</v>
+      </c>
+      <c r="CK3">
+        <v>0.83094000000000001</v>
+      </c>
+      <c r="CL3">
+        <v>0.79164999999999996</v>
+      </c>
+      <c r="CM3">
+        <v>0.80981000000000003</v>
+      </c>
+      <c r="CN3">
+        <v>0.81174999999999997</v>
+      </c>
+      <c r="CO3">
+        <v>0.81584000000000001</v>
+      </c>
+      <c r="CP3">
+        <v>0.80122000000000004</v>
+      </c>
+      <c r="CQ3">
+        <v>0.81681999999999999</v>
+      </c>
+      <c r="CR3">
+        <v>0.81891000000000003</v>
+      </c>
+      <c r="CS3">
+        <v>0.82013999999999998</v>
+      </c>
+      <c r="CT3">
+        <v>0.80398000000000003</v>
+      </c>
+      <c r="CU3">
+        <v>0.79776000000000002</v>
+      </c>
+      <c r="CV3">
+        <v>0.81872</v>
+      </c>
+      <c r="CW3">
+        <v>0.8144674999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.83681000000000005</v>
+      </c>
+      <c r="B4">
+        <v>0.81191000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.82254000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.80588000000000004</v>
+      </c>
+      <c r="F4">
+        <v>0.80591999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.79325999999999997</v>
+      </c>
+      <c r="H4">
+        <v>0.81332000000000004</v>
+      </c>
+      <c r="I4">
+        <v>0.80549000000000004</v>
+      </c>
+      <c r="J4">
+        <v>0.78944999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.79557999999999995</v>
+      </c>
+      <c r="L4">
+        <v>0.79935999999999996</v>
+      </c>
+      <c r="M4">
+        <v>0.81162999999999996</v>
+      </c>
+      <c r="N4">
+        <v>0.81428</v>
+      </c>
+      <c r="O4">
+        <v>0.83028999999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.82728999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>0.83331</v>
+      </c>
+      <c r="R4">
+        <v>0.82298000000000004</v>
+      </c>
+      <c r="S4">
+        <v>0.81555</v>
+      </c>
+      <c r="T4">
+        <v>0.82060999999999995</v>
+      </c>
+      <c r="U4">
+        <v>0.80867999999999995</v>
+      </c>
+      <c r="V4">
+        <v>0.81435999999999997</v>
+      </c>
+      <c r="W4">
+        <v>0.84</v>
+      </c>
+      <c r="X4">
+        <v>0.82640999999999998</v>
+      </c>
+      <c r="Y4">
+        <v>0.78463000000000005</v>
+      </c>
+      <c r="Z4">
+        <v>0.80855999999999995</v>
+      </c>
+      <c r="AA4">
+        <v>0.80095000000000005</v>
+      </c>
+      <c r="AB4">
+        <v>0.79664999999999997</v>
+      </c>
+      <c r="AC4">
+        <v>0.83033000000000001</v>
+      </c>
+      <c r="AD4">
+        <v>0.80498999999999998</v>
+      </c>
+      <c r="AE4">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="AF4">
+        <v>0.78876999999999997</v>
+      </c>
+      <c r="AG4">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="AH4">
+        <v>0.80739000000000005</v>
+      </c>
+      <c r="AI4">
+        <v>0.82252999999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>0.80406999999999995</v>
+      </c>
+      <c r="AK4">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="AL4">
+        <v>0.83047000000000004</v>
+      </c>
+      <c r="AM4">
+        <v>0.82188000000000005</v>
+      </c>
+      <c r="AN4">
+        <v>0.80556000000000005</v>
+      </c>
+      <c r="AO4">
+        <v>0.81598999999999999</v>
+      </c>
+      <c r="AP4">
+        <v>0.80779000000000001</v>
+      </c>
+      <c r="AQ4">
+        <v>0.81352999999999998</v>
+      </c>
+      <c r="AR4">
+        <v>0.84143000000000001</v>
+      </c>
+      <c r="AS4">
+        <v>0.82874000000000003</v>
+      </c>
+      <c r="AT4">
+        <v>0.81052999999999997</v>
+      </c>
+      <c r="AU4">
+        <v>0.78534999999999999</v>
+      </c>
+      <c r="AV4">
+        <v>0.81330000000000002</v>
+      </c>
+      <c r="AW4">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="AX4">
+        <v>0.80193000000000003</v>
+      </c>
+      <c r="AY4">
+        <v>0.80015999999999998</v>
+      </c>
+      <c r="AZ4">
+        <v>0.83638999999999997</v>
+      </c>
+      <c r="BA4">
+        <v>0.81113000000000002</v>
+      </c>
+      <c r="BB4">
+        <v>0.81381999999999999</v>
+      </c>
+      <c r="BC4">
+        <v>0.83670999999999995</v>
+      </c>
+      <c r="BD4">
+        <v>0.80093000000000003</v>
+      </c>
+      <c r="BE4">
+        <v>0.81959000000000004</v>
+      </c>
+      <c r="BF4">
+        <v>0.78463000000000005</v>
+      </c>
+      <c r="BG4">
+        <v>0.81508999999999998</v>
+      </c>
+      <c r="BH4">
+        <v>0.82328999999999997</v>
+      </c>
+      <c r="BI4">
+        <v>0.81179000000000001</v>
+      </c>
+      <c r="BJ4">
+        <v>0.81201000000000001</v>
+      </c>
+      <c r="BK4">
+        <v>0.83755000000000002</v>
+      </c>
+      <c r="BL4">
+        <v>0.81884999999999997</v>
+      </c>
+      <c r="BM4">
+        <v>0.79822000000000004</v>
+      </c>
+      <c r="BN4">
+        <v>0.78005999999999998</v>
+      </c>
+      <c r="BO4">
+        <v>0.82806999999999997</v>
+      </c>
+      <c r="BP4">
+        <v>0.82369000000000003</v>
+      </c>
+      <c r="BQ4">
+        <v>0.80306</v>
+      </c>
+      <c r="BR4">
+        <v>0.79852999999999996</v>
+      </c>
+      <c r="BS4">
+        <v>0.80845</v>
+      </c>
+      <c r="BT4">
+        <v>0.79795000000000005</v>
+      </c>
+      <c r="BU4">
+        <v>0.81884999999999997</v>
+      </c>
+      <c r="BV4">
+        <v>0.78471999999999997</v>
+      </c>
+      <c r="BW4">
+        <v>0.80428999999999995</v>
+      </c>
+      <c r="BX4">
+        <v>0.81225000000000003</v>
+      </c>
+      <c r="BY4">
+        <v>0.81284999999999996</v>
+      </c>
+      <c r="BZ4">
+        <v>0.83677999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.81781999999999999</v>
+      </c>
+      <c r="CB4">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="CC4">
+        <v>0.81576000000000004</v>
+      </c>
+      <c r="CD4">
+        <v>0.79762999999999995</v>
+      </c>
+      <c r="CE4">
+        <v>0.82455999999999996</v>
+      </c>
+      <c r="CF4">
+        <v>0.82506000000000002</v>
+      </c>
+      <c r="CG4">
+        <v>0.78046000000000004</v>
+      </c>
+      <c r="CH4">
+        <v>0.80972</v>
+      </c>
+      <c r="CI4">
+        <v>0.80752999999999997</v>
+      </c>
+      <c r="CJ4">
+        <v>0.80408000000000002</v>
+      </c>
+      <c r="CK4">
+        <v>0.81852999999999998</v>
+      </c>
+      <c r="CL4">
+        <v>0.81481999999999999</v>
+      </c>
+      <c r="CM4">
+        <v>0.81420000000000003</v>
+      </c>
+      <c r="CN4">
+        <v>0.82845000000000002</v>
+      </c>
+      <c r="CO4">
+        <v>0.82828000000000002</v>
+      </c>
+      <c r="CP4">
+        <v>0.81962999999999997</v>
+      </c>
+      <c r="CQ4">
+        <v>0.82177</v>
+      </c>
+      <c r="CR4">
+        <v>0.81882999999999995</v>
+      </c>
+      <c r="CS4">
+        <v>0.79896999999999996</v>
+      </c>
+      <c r="CT4">
+        <v>0.80910000000000004</v>
+      </c>
+      <c r="CU4">
+        <v>0.81801000000000001</v>
+      </c>
+      <c r="CV4">
+        <v>0.80767999999999995</v>
+      </c>
+      <c r="CW4">
+        <v>0.81298680000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.81457999999999997</v>
+      </c>
+      <c r="B5">
+        <v>0.82284999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.79479</v>
+      </c>
+      <c r="D5">
+        <v>0.80364999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.79276000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.79561999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.82264000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.80323</v>
+      </c>
+      <c r="I5">
+        <v>0.83355000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.81032000000000004</v>
+      </c>
+      <c r="L5">
+        <v>0.79883000000000004</v>
+      </c>
+      <c r="M5">
+        <v>0.79296</v>
+      </c>
+      <c r="N5">
+        <v>0.81779000000000002</v>
+      </c>
+      <c r="O5">
+        <v>0.78915000000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.79864999999999997</v>
+      </c>
+      <c r="Q5">
+        <v>0.80483000000000005</v>
+      </c>
+      <c r="R5">
+        <v>0.79862</v>
+      </c>
+      <c r="S5">
+        <v>0.81818999999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.82474000000000003</v>
+      </c>
+      <c r="U5">
+        <v>0.80427000000000004</v>
+      </c>
+      <c r="V5">
+        <v>0.81442000000000003</v>
+      </c>
+      <c r="W5">
+        <v>0.82204999999999995</v>
+      </c>
+      <c r="X5">
+        <v>0.79745999999999995</v>
+      </c>
+      <c r="Y5">
+        <v>0.80391000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.82926</v>
+      </c>
+      <c r="AA5">
+        <v>0.80139000000000005</v>
+      </c>
+      <c r="AB5">
+        <v>0.80896000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>0.81064999999999998</v>
+      </c>
+      <c r="AD5">
+        <v>0.79837000000000002</v>
+      </c>
+      <c r="AE5">
+        <v>0.80408000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>0.81772999999999996</v>
+      </c>
+      <c r="AG5">
+        <v>0.79454999999999998</v>
+      </c>
+      <c r="AH5">
+        <v>0.80986000000000002</v>
+      </c>
+      <c r="AI5">
+        <v>0.79076999999999997</v>
+      </c>
+      <c r="AJ5">
+        <v>0.80645</v>
+      </c>
+      <c r="AK5">
+        <v>0.81194999999999995</v>
+      </c>
+      <c r="AL5">
+        <v>0.82933999999999997</v>
+      </c>
+      <c r="AM5">
+        <v>0.81006</v>
+      </c>
+      <c r="AN5">
+        <v>0.77485999999999999</v>
+      </c>
+      <c r="AO5">
+        <v>0.81162000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.79351000000000005</v>
+      </c>
+      <c r="AQ5">
+        <v>0.80976999999999999</v>
+      </c>
+      <c r="AR5">
+        <v>0.80056000000000005</v>
+      </c>
+      <c r="AS5">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="AT5">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="AU5">
+        <v>0.82138999999999995</v>
+      </c>
+      <c r="AV5">
+        <v>0.83406000000000002</v>
+      </c>
+      <c r="AW5">
+        <v>0.80813000000000001</v>
+      </c>
+      <c r="AX5">
+        <v>0.8216</v>
+      </c>
+      <c r="AY5">
+        <v>0.81023999999999996</v>
+      </c>
+      <c r="AZ5">
+        <v>0.81871000000000005</v>
+      </c>
+      <c r="BA5">
+        <v>0.82143999999999995</v>
+      </c>
+      <c r="BB5">
+        <v>0.80535999999999996</v>
+      </c>
+      <c r="BC5">
+        <v>0.78561999999999999</v>
+      </c>
+      <c r="BD5">
+        <v>0.80288000000000004</v>
+      </c>
+      <c r="BE5">
+        <v>0.79422999999999999</v>
+      </c>
+      <c r="BF5">
+        <v>0.80347000000000002</v>
+      </c>
+      <c r="BG5">
+        <v>0.81533</v>
+      </c>
+      <c r="BH5">
+        <v>0.80318000000000001</v>
+      </c>
+      <c r="BI5">
+        <v>0.80345</v>
+      </c>
+      <c r="BJ5">
+        <v>0.79718999999999995</v>
+      </c>
+      <c r="BK5">
+        <v>0.82738</v>
+      </c>
+      <c r="BL5">
+        <v>0.82257999999999998</v>
+      </c>
+      <c r="BM5">
+        <v>0.81381000000000003</v>
+      </c>
+      <c r="BN5">
+        <v>0.80818999999999996</v>
+      </c>
+      <c r="BO5">
+        <v>0.81866000000000005</v>
+      </c>
+      <c r="BP5">
+        <v>0.80930000000000002</v>
+      </c>
+      <c r="BQ5">
+        <v>0.83165</v>
+      </c>
+      <c r="BR5">
+        <v>0.81488000000000005</v>
+      </c>
+      <c r="BS5">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="BT5">
+        <v>0.81357000000000002</v>
+      </c>
+      <c r="BU5">
+        <v>0.78495999999999999</v>
+      </c>
+      <c r="BV5">
+        <v>0.78888000000000003</v>
+      </c>
+      <c r="BW5">
+        <v>0.80906</v>
+      </c>
+      <c r="BX5">
+        <v>0.80411999999999995</v>
+      </c>
+      <c r="BY5">
+        <v>0.81618999999999997</v>
+      </c>
+      <c r="BZ5">
+        <v>0.81340999999999997</v>
+      </c>
+      <c r="CA5">
+        <v>0.79529000000000005</v>
+      </c>
+      <c r="CB5">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="CC5">
+        <v>0.81377999999999995</v>
+      </c>
+      <c r="CD5">
+        <v>0.80593999999999999</v>
+      </c>
+      <c r="CE5">
+        <v>0.80901000000000001</v>
+      </c>
+      <c r="CF5">
+        <v>0.79903000000000002</v>
+      </c>
+      <c r="CG5">
+        <v>0.81493000000000004</v>
+      </c>
+      <c r="CH5">
+        <v>0.81174999999999997</v>
+      </c>
+      <c r="CI5">
+        <v>0.80596000000000001</v>
+      </c>
+      <c r="CJ5">
+        <v>0.79312000000000005</v>
+      </c>
+      <c r="CK5">
+        <v>0.81433</v>
+      </c>
+      <c r="CL5">
+        <v>0.79169</v>
+      </c>
+      <c r="CM5">
+        <v>0.79042000000000001</v>
+      </c>
+      <c r="CN5">
+        <v>0.79054999999999997</v>
+      </c>
+      <c r="CO5">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="CP5">
+        <v>0.79383999999999999</v>
+      </c>
+      <c r="CQ5">
+        <v>0.80862999999999996</v>
+      </c>
+      <c r="CR5">
+        <v>0.79825000000000002</v>
+      </c>
+      <c r="CS5">
+        <v>0.79986000000000002</v>
+      </c>
+      <c r="CT5">
+        <v>0.81601000000000001</v>
+      </c>
+      <c r="CU5">
+        <v>0.80954999999999999</v>
+      </c>
+      <c r="CV5">
+        <v>0.79003999999999996</v>
+      </c>
+      <c r="CW5">
+        <v>0.807033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.81274000000000002</v>
+      </c>
+      <c r="B6">
+        <v>0.79484999999999995</v>
+      </c>
+      <c r="C6">
+        <v>0.82376000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.78525999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.81088000000000005</v>
+      </c>
+      <c r="F6">
+        <v>0.81206</v>
+      </c>
+      <c r="G6">
+        <v>0.81067</v>
+      </c>
+      <c r="H6">
+        <v>0.80101</v>
+      </c>
+      <c r="I6">
+        <v>0.81586000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.80872999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.82343999999999995</v>
+      </c>
+      <c r="L6">
+        <v>0.78441000000000005</v>
+      </c>
+      <c r="M6">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.79725999999999997</v>
+      </c>
+      <c r="O6">
+        <v>0.81537999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.79418999999999995</v>
+      </c>
+      <c r="Q6">
+        <v>0.79403999999999997</v>
+      </c>
+      <c r="R6">
+        <v>0.80989</v>
+      </c>
+      <c r="S6">
+        <v>0.81638999999999995</v>
+      </c>
+      <c r="T6">
+        <v>0.82677</v>
+      </c>
+      <c r="U6">
+        <v>0.81327000000000005</v>
+      </c>
+      <c r="V6">
+        <v>0.80498999999999998</v>
+      </c>
+      <c r="W6">
+        <v>0.81059000000000003</v>
+      </c>
+      <c r="X6">
+        <v>0.82587999999999995</v>
+      </c>
+      <c r="Y6">
+        <v>0.79581999999999997</v>
+      </c>
+      <c r="Z6">
+        <v>0.81645999999999996</v>
+      </c>
+      <c r="AA6">
+        <v>0.81067</v>
+      </c>
+      <c r="AB6">
+        <v>0.81438999999999995</v>
+      </c>
+      <c r="AC6">
+        <v>0.81383000000000005</v>
+      </c>
+      <c r="AD6">
+        <v>0.81662999999999997</v>
+      </c>
+      <c r="AE6">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="AF6">
+        <v>0.82315000000000005</v>
+      </c>
+      <c r="AG6">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AH6">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="AI6">
+        <v>0.79627999999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>0.78602000000000005</v>
+      </c>
+      <c r="AK6">
+        <v>0.81284000000000001</v>
+      </c>
+      <c r="AL6">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="AM6">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="AN6">
+        <v>0.78368000000000004</v>
+      </c>
+      <c r="AO6">
+        <v>0.81896000000000002</v>
+      </c>
+      <c r="AP6">
+        <v>0.80374000000000001</v>
+      </c>
+      <c r="AQ6">
+        <v>0.79691000000000001</v>
+      </c>
+      <c r="AR6">
+        <v>0.81315000000000004</v>
+      </c>
+      <c r="AS6">
+        <v>0.79827999999999999</v>
+      </c>
+      <c r="AT6">
+        <v>0.79191999999999996</v>
+      </c>
+      <c r="AU6">
+        <v>0.79781000000000002</v>
+      </c>
+      <c r="AV6">
+        <v>0.8196</v>
+      </c>
+      <c r="AW6">
+        <v>0.81720999999999999</v>
+      </c>
+      <c r="AX6">
+        <v>0.82103000000000004</v>
+      </c>
+      <c r="AY6">
+        <v>0.82867000000000002</v>
+      </c>
+      <c r="AZ6">
+        <v>0.81037000000000003</v>
+      </c>
+      <c r="BA6">
+        <v>0.81969999999999998</v>
+      </c>
+      <c r="BB6">
+        <v>0.79991999999999996</v>
+      </c>
+      <c r="BC6">
+        <v>0.81435000000000002</v>
+      </c>
+      <c r="BD6">
+        <v>0.81267</v>
+      </c>
+      <c r="BE6">
+        <v>0.78532000000000002</v>
+      </c>
+      <c r="BF6">
+        <v>0.80640999999999996</v>
+      </c>
+      <c r="BG6">
+        <v>0.80932000000000004</v>
+      </c>
+      <c r="BH6">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="BI6">
+        <v>0.80069000000000001</v>
+      </c>
+      <c r="BJ6">
+        <v>0.80718000000000001</v>
+      </c>
+      <c r="BK6">
+        <v>0.80286000000000002</v>
+      </c>
+      <c r="BL6">
+        <v>0.77614000000000005</v>
+      </c>
+      <c r="BM6">
+        <v>0.81891000000000003</v>
+      </c>
+      <c r="BN6">
+        <v>0.81628000000000001</v>
+      </c>
+      <c r="BO6">
+        <v>0.81864000000000003</v>
+      </c>
+      <c r="BP6">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="BQ6">
+        <v>0.80991000000000002</v>
+      </c>
+      <c r="BR6">
+        <v>0.81301000000000001</v>
+      </c>
+      <c r="BS6">
+        <v>0.79598000000000002</v>
+      </c>
+      <c r="BT6">
+        <v>0.81823999999999997</v>
+      </c>
+      <c r="BU6">
+        <v>0.80349000000000004</v>
+      </c>
+      <c r="BV6">
+        <v>0.80142000000000002</v>
+      </c>
+      <c r="BW6">
+        <v>0.80710999999999999</v>
+      </c>
+      <c r="BX6">
+        <v>0.80271000000000003</v>
+      </c>
+      <c r="BY6">
+        <v>0.79137999999999997</v>
+      </c>
+      <c r="BZ6">
+        <v>0.82447999999999999</v>
+      </c>
+      <c r="CA6">
+        <v>0.80173000000000005</v>
+      </c>
+      <c r="CB6">
+        <v>0.81747000000000003</v>
+      </c>
+      <c r="CC6">
+        <v>0.79778000000000004</v>
+      </c>
+      <c r="CD6">
+        <v>0.81752000000000002</v>
+      </c>
+      <c r="CE6">
+        <v>0.79510999999999998</v>
+      </c>
+      <c r="CF6">
+        <v>0.77041999999999999</v>
+      </c>
+      <c r="CG6">
+        <v>0.81771000000000005</v>
+      </c>
+      <c r="CH6">
+        <v>0.80623</v>
+      </c>
+      <c r="CI6">
+        <v>0.82120000000000004</v>
+      </c>
+      <c r="CJ6">
+        <v>0.79327999999999999</v>
+      </c>
+      <c r="CK6">
+        <v>0.79561000000000004</v>
+      </c>
+      <c r="CL6">
+        <v>0.79425999999999997</v>
+      </c>
+      <c r="CM6">
+        <v>0.83782000000000001</v>
+      </c>
+      <c r="CN6">
+        <v>0.81098999999999999</v>
+      </c>
+      <c r="CO6">
+        <v>0.8175</v>
+      </c>
+      <c r="CP6">
+        <v>0.80989</v>
+      </c>
+      <c r="CQ6">
+        <v>0.79617000000000004</v>
+      </c>
+      <c r="CR6">
+        <v>0.82023999999999997</v>
+      </c>
+      <c r="CS6">
+        <v>0.76846000000000003</v>
+      </c>
+      <c r="CT6">
+        <v>0.82116</v>
+      </c>
+      <c r="CU6">
+        <v>0.80495000000000005</v>
+      </c>
+      <c r="CV6">
+        <v>0.8014</v>
+      </c>
+      <c r="CW6">
+        <v>0.8063075999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.78734999999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.81542000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.79683999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.80928</v>
+      </c>
+      <c r="E7">
+        <v>0.80801000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.77242999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.80784999999999996</v>
+      </c>
+      <c r="H7">
+        <v>0.80916999999999994</v>
+      </c>
+      <c r="I7">
+        <v>0.80081000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.80450999999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.78619000000000006</v>
+      </c>
+      <c r="L7">
+        <v>0.81281000000000003</v>
+      </c>
+      <c r="M7">
+        <v>0.79635999999999996</v>
+      </c>
+      <c r="N7">
+        <v>0.80861000000000005</v>
+      </c>
+      <c r="O7">
+        <v>0.81220000000000003</v>
+      </c>
+      <c r="P7">
+        <v>0.82357000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.79825999999999997</v>
+      </c>
+      <c r="R7">
+        <v>0.81767000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.78446000000000005</v>
+      </c>
+      <c r="T7">
+        <v>0.79325999999999997</v>
+      </c>
+      <c r="U7">
+        <v>0.78134000000000003</v>
+      </c>
+      <c r="V7">
+        <v>0.78935999999999995</v>
+      </c>
+      <c r="W7">
+        <v>0.80908999999999998</v>
+      </c>
+      <c r="X7">
+        <v>0.79412000000000005</v>
+      </c>
+      <c r="Y7">
+        <v>0.77830999999999995</v>
+      </c>
+      <c r="Z7">
+        <v>0.79396</v>
+      </c>
+      <c r="AA7">
+        <v>0.78115999999999997</v>
+      </c>
+      <c r="AB7">
+        <v>0.81133999999999995</v>
+      </c>
+      <c r="AC7">
+        <v>0.79645999999999995</v>
+      </c>
+      <c r="AD7">
+        <v>0.81676000000000004</v>
+      </c>
+      <c r="AE7">
+        <v>0.83479000000000003</v>
+      </c>
+      <c r="AF7">
+        <v>0.80456000000000005</v>
+      </c>
+      <c r="AG7">
+        <v>0.78464</v>
+      </c>
+      <c r="AH7">
+        <v>0.81542999999999999</v>
+      </c>
+      <c r="AI7">
+        <v>0.79471999999999998</v>
+      </c>
+      <c r="AJ7">
+        <v>0.80486999999999997</v>
+      </c>
+      <c r="AK7">
+        <v>0.80115000000000003</v>
+      </c>
+      <c r="AL7">
+        <v>0.81277999999999995</v>
+      </c>
+      <c r="AM7">
+        <v>0.81086000000000003</v>
+      </c>
+      <c r="AN7">
+        <v>0.77763000000000004</v>
+      </c>
+      <c r="AO7">
+        <v>0.79603999999999997</v>
+      </c>
+      <c r="AP7">
+        <v>0.80332999999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>0.80457000000000001</v>
+      </c>
+      <c r="AR7">
+        <v>0.77473999999999998</v>
+      </c>
+      <c r="AS7">
+        <v>0.82049000000000005</v>
+      </c>
+      <c r="AT7">
+        <v>0.78857999999999995</v>
+      </c>
+      <c r="AU7">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="AV7">
+        <v>0.81818000000000002</v>
+      </c>
+      <c r="AW7">
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="AX7">
+        <v>0.81791000000000003</v>
+      </c>
+      <c r="AY7">
+        <v>0.78859000000000001</v>
+      </c>
+      <c r="AZ7">
+        <v>0.81484000000000001</v>
+      </c>
+      <c r="BA7">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="BB7">
+        <v>0.81211</v>
+      </c>
+      <c r="BC7">
+        <v>0.80584</v>
+      </c>
+      <c r="BD7">
+        <v>0.79332000000000003</v>
+      </c>
+      <c r="BE7">
+        <v>0.78617000000000004</v>
+      </c>
+      <c r="BF7">
+        <v>0.80027000000000004</v>
+      </c>
+      <c r="BG7">
+        <v>0.79056000000000004</v>
+      </c>
+      <c r="BH7">
+        <v>0.80003000000000002</v>
+      </c>
+      <c r="BI7">
+        <v>0.81711</v>
+      </c>
+      <c r="BJ7">
+        <v>0.78974</v>
+      </c>
+      <c r="BK7">
+        <v>0.81157000000000001</v>
+      </c>
+      <c r="BL7">
+        <v>0.81881000000000004</v>
+      </c>
+      <c r="BM7">
+        <v>0.80632000000000004</v>
+      </c>
+      <c r="BN7">
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="BO7">
+        <v>0.79808000000000001</v>
+      </c>
+      <c r="BP7">
+        <v>0.77122999999999997</v>
+      </c>
+      <c r="BQ7">
+        <v>0.79340999999999995</v>
+      </c>
+      <c r="BR7">
+        <v>0.82887</v>
+      </c>
+      <c r="BS7">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="BT7">
+        <v>0.80771999999999999</v>
+      </c>
+      <c r="BU7">
+        <v>0.77812000000000003</v>
+      </c>
+      <c r="BV7">
+        <v>0.81076000000000004</v>
+      </c>
+      <c r="BW7">
+        <v>0.77705999999999997</v>
+      </c>
+      <c r="BX7">
+        <v>0.78932000000000002</v>
+      </c>
+      <c r="BY7">
+        <v>0.81433</v>
+      </c>
+      <c r="BZ7">
+        <v>0.81128999999999996</v>
+      </c>
+      <c r="CA7">
+        <v>0.79071000000000002</v>
+      </c>
+      <c r="CB7">
+        <v>0.81159000000000003</v>
+      </c>
+      <c r="CC7">
+        <v>0.77156999999999998</v>
+      </c>
+      <c r="CD7">
+        <v>0.80952999999999997</v>
+      </c>
+      <c r="CE7">
+        <v>0.81567000000000001</v>
+      </c>
+      <c r="CF7">
+        <v>0.78266999999999998</v>
+      </c>
+      <c r="CG7">
+        <v>0.83079000000000003</v>
+      </c>
+      <c r="CH7">
+        <v>0.80112000000000005</v>
+      </c>
+      <c r="CI7">
+        <v>0.82811000000000001</v>
+      </c>
+      <c r="CJ7">
+        <v>0.79285000000000005</v>
+      </c>
+      <c r="CK7">
+        <v>0.81047000000000002</v>
+      </c>
+      <c r="CL7">
         <v>0.80698999999999999</v>
       </c>
-      <c r="B3">
-        <v>0.81305000000000005</v>
-      </c>
-      <c r="C3">
+      <c r="CM7">
+        <v>0.80262999999999995</v>
+      </c>
+      <c r="CN7">
+        <v>0.80303999999999998</v>
+      </c>
+      <c r="CO7">
+        <v>0.78656999999999999</v>
+      </c>
+      <c r="CP7">
+        <v>0.81833999999999996</v>
+      </c>
+      <c r="CQ7">
+        <v>0.79122000000000003</v>
+      </c>
+      <c r="CR7">
+        <v>0.81167999999999996</v>
+      </c>
+      <c r="CS7">
+        <v>0.81262999999999996</v>
+      </c>
+      <c r="CT7">
+        <v>0.79113</v>
+      </c>
+      <c r="CU7">
+        <v>0.79357</v>
+      </c>
+      <c r="CV7">
+        <v>0.79817000000000005</v>
+      </c>
+      <c r="CW7">
+        <v>0.80166399999999949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.79037999999999997</v>
+      </c>
+      <c r="B8">
+        <v>0.77522999999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.80886999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.80456000000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.77925</v>
+      </c>
+      <c r="H8">
+        <v>0.78932999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.78227999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.79308000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.79659000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.80196000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.80320999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.80486000000000002</v>
+      </c>
+      <c r="O8">
+        <v>0.79645999999999995</v>
+      </c>
+      <c r="P8">
+        <v>0.79508999999999996</v>
+      </c>
+      <c r="Q8">
+        <v>0.79918999999999996</v>
+      </c>
+      <c r="R8">
+        <v>0.77898999999999996</v>
+      </c>
+      <c r="S8">
+        <v>0.78366999999999998</v>
+      </c>
+      <c r="T8">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="U8">
+        <v>0.79835</v>
+      </c>
+      <c r="V8">
+        <v>0.82059000000000004</v>
+      </c>
+      <c r="W8">
+        <v>0.82894999999999996</v>
+      </c>
+      <c r="X8">
+        <v>0.80301999999999996</v>
+      </c>
+      <c r="Y8">
+        <v>0.81738999999999995</v>
+      </c>
+      <c r="Z8">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>0.77173999999999998</v>
+      </c>
+      <c r="AB8">
+        <v>0.79915000000000003</v>
+      </c>
+      <c r="AC8">
+        <v>0.80517000000000005</v>
+      </c>
+      <c r="AD8">
+        <v>0.78922999999999999</v>
+      </c>
+      <c r="AE8">
+        <v>0.82960999999999996</v>
+      </c>
+      <c r="AF8">
+        <v>0.79215999999999998</v>
+      </c>
+      <c r="AG8">
+        <v>0.75924000000000003</v>
+      </c>
+      <c r="AH8">
+        <v>0.78615999999999997</v>
+      </c>
+      <c r="AI8">
+        <v>0.80388999999999999</v>
+      </c>
+      <c r="AJ8">
+        <v>0.79503999999999997</v>
+      </c>
+      <c r="AK8">
+        <v>0.79056000000000004</v>
+      </c>
+      <c r="AL8">
+        <v>0.79679999999999995</v>
+      </c>
+      <c r="AM8">
+        <v>0.79074</v>
+      </c>
+      <c r="AN8">
+        <v>0.77312999999999998</v>
+      </c>
+      <c r="AO8">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="AP8">
+        <v>0.81198000000000004</v>
+      </c>
+      <c r="AQ8">
+        <v>0.79056000000000004</v>
+      </c>
+      <c r="AR8">
+        <v>0.80293000000000003</v>
+      </c>
+      <c r="AS8">
+        <v>0.80647999999999997</v>
+      </c>
+      <c r="AT8">
+        <v>0.80350999999999995</v>
+      </c>
+      <c r="AU8">
+        <v>0.81738</v>
+      </c>
+      <c r="AV8">
+        <v>0.79505999999999999</v>
+      </c>
+      <c r="AW8">
+        <v>0.79666999999999999</v>
+      </c>
+      <c r="AX8">
+        <v>0.81518999999999997</v>
+      </c>
+      <c r="AY8">
+        <v>0.79561999999999999</v>
+      </c>
+      <c r="AZ8">
+        <v>0.78166999999999998</v>
+      </c>
+      <c r="BA8">
+        <v>0.80084999999999995</v>
+      </c>
+      <c r="BB8">
+        <v>0.78993999999999998</v>
+      </c>
+      <c r="BC8">
+        <v>0.77134999999999998</v>
+      </c>
+      <c r="BD8">
+        <v>0.80810999999999999</v>
+      </c>
+      <c r="BE8">
+        <v>0.78495000000000004</v>
+      </c>
+      <c r="BF8">
+        <v>0.80218999999999996</v>
+      </c>
+      <c r="BG8">
+        <v>0.79617000000000004</v>
+      </c>
+      <c r="BH8">
+        <v>0.77598</v>
+      </c>
+      <c r="BI8">
+        <v>0.77658000000000005</v>
+      </c>
+      <c r="BJ8">
+        <v>0.79159000000000002</v>
+      </c>
+      <c r="BK8">
+        <v>0.78117000000000003</v>
+      </c>
+      <c r="BL8">
+        <v>0.79056999999999999</v>
+      </c>
+      <c r="BM8">
+        <v>0.79074999999999995</v>
+      </c>
+      <c r="BN8">
+        <v>0.79064000000000001</v>
+      </c>
+      <c r="BO8">
+        <v>0.79627999999999999</v>
+      </c>
+      <c r="BP8">
+        <v>0.79967999999999995</v>
+      </c>
+      <c r="BQ8">
+        <v>0.81596999999999997</v>
+      </c>
+      <c r="BR8">
+        <v>0.80110999999999999</v>
+      </c>
+      <c r="BS8">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="BT8">
+        <v>0.78017000000000003</v>
+      </c>
+      <c r="BU8">
+        <v>0.81649000000000005</v>
+      </c>
+      <c r="BV8">
+        <v>0.78952</v>
+      </c>
+      <c r="BW8">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="BX8">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="BY8">
+        <v>0.79927000000000004</v>
+      </c>
+      <c r="BZ8">
+        <v>0.81323999999999996</v>
+      </c>
+      <c r="CA8">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="CB8">
+        <v>0.77083000000000002</v>
+      </c>
+      <c r="CC8">
+        <v>0.79247000000000001</v>
+      </c>
+      <c r="CD8">
+        <v>0.80478000000000005</v>
+      </c>
+      <c r="CE8">
+        <v>0.78908</v>
+      </c>
+      <c r="CF8">
+        <v>0.78854999999999997</v>
+      </c>
+      <c r="CG8">
+        <v>0.78313999999999995</v>
+      </c>
+      <c r="CH8">
+        <v>0.81054999999999999</v>
+      </c>
+      <c r="CI8">
+        <v>0.78510000000000002</v>
+      </c>
+      <c r="CJ8">
+        <v>0.80959000000000003</v>
+      </c>
+      <c r="CK8">
+        <v>0.80056000000000005</v>
+      </c>
+      <c r="CL8">
+        <v>0.77739000000000003</v>
+      </c>
+      <c r="CM8">
+        <v>0.80637000000000003</v>
+      </c>
+      <c r="CN8">
+        <v>0.79967999999999995</v>
+      </c>
+      <c r="CO8">
+        <v>0.80757000000000001</v>
+      </c>
+      <c r="CP8">
+        <v>0.81464000000000003</v>
+      </c>
+      <c r="CQ8">
+        <v>0.80859000000000003</v>
+      </c>
+      <c r="CR8">
+        <v>0.80617000000000005</v>
+      </c>
+      <c r="CS8">
+        <v>0.79574</v>
+      </c>
+      <c r="CT8">
+        <v>0.79285000000000005</v>
+      </c>
+      <c r="CU8">
+        <v>0.80633999999999995</v>
+      </c>
+      <c r="CV8">
+        <v>0.80694999999999995</v>
+      </c>
+      <c r="CW8">
+        <v>0.79649579999999987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.81637999999999999</v>
+      </c>
+      <c r="B9">
+        <v>0.80674999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.79073000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.79964000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.79620999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.78842999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.79369000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.78554999999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.81098999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.77183000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.77754999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.79117000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.79364999999999997</v>
+      </c>
+      <c r="N9">
+        <v>0.79300999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.79913000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.77914000000000005</v>
+      </c>
+      <c r="Q9">
+        <v>0.81225000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.80169000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.79064999999999996</v>
+      </c>
+      <c r="T9">
+        <v>0.82172000000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.7923</v>
+      </c>
+      <c r="V9">
+        <v>0.78313999999999995</v>
+      </c>
+      <c r="W9">
+        <v>0.79644000000000004</v>
+      </c>
+      <c r="X9">
+        <v>0.78971000000000002</v>
+      </c>
+      <c r="Y9">
+        <v>0.79854999999999998</v>
+      </c>
+      <c r="Z9">
+        <v>0.78281000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0.81411</v>
+      </c>
+      <c r="AB9">
+        <v>0.80896000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="AD9">
+        <v>0.79703999999999997</v>
+      </c>
+      <c r="AE9">
+        <v>0.79330999999999996</v>
+      </c>
+      <c r="AF9">
+        <v>0.80854000000000004</v>
+      </c>
+      <c r="AG9">
+        <v>0.80694999999999995</v>
+      </c>
+      <c r="AH9">
+        <v>0.81657999999999997</v>
+      </c>
+      <c r="AI9">
+        <v>0.81211999999999995</v>
+      </c>
+      <c r="AJ9">
+        <v>0.78961000000000003</v>
+      </c>
+      <c r="AK9">
+        <v>0.78712000000000004</v>
+      </c>
+      <c r="AL9">
+        <v>0.79422000000000004</v>
+      </c>
+      <c r="AM9">
+        <v>0.80317000000000005</v>
+      </c>
+      <c r="AN9">
+        <v>0.79047999999999996</v>
+      </c>
+      <c r="AO9">
+        <v>0.81777</v>
+      </c>
+      <c r="AP9">
+        <v>0.79410999999999998</v>
+      </c>
+      <c r="AQ9">
+        <v>0.80071000000000003</v>
+      </c>
+      <c r="AR9">
+        <v>0.79096999999999995</v>
+      </c>
+      <c r="AS9">
+        <v>0.80562999999999996</v>
+      </c>
+      <c r="AT9">
+        <v>0.77488999999999997</v>
+      </c>
+      <c r="AU9">
+        <v>0.80223</v>
+      </c>
+      <c r="AV9">
+        <v>0.81999</v>
+      </c>
+      <c r="AW9">
+        <v>0.78732000000000002</v>
+      </c>
+      <c r="AX9">
+        <v>0.80849000000000004</v>
+      </c>
+      <c r="AY9">
+        <v>0.77547999999999995</v>
+      </c>
+      <c r="AZ9">
+        <v>0.78585000000000005</v>
+      </c>
+      <c r="BA9">
+        <v>0.78702000000000005</v>
+      </c>
+      <c r="BB9">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="BC9">
+        <v>0.82286000000000004</v>
+      </c>
+      <c r="BD9">
+        <v>0.80176000000000003</v>
+      </c>
+      <c r="BE9">
+        <v>0.80084999999999995</v>
+      </c>
+      <c r="BF9">
+        <v>0.82037000000000004</v>
+      </c>
+      <c r="BG9">
+        <v>0.79337999999999997</v>
+      </c>
+      <c r="BH9">
+        <v>0.81008999999999998</v>
+      </c>
+      <c r="BI9">
+        <v>0.81835000000000002</v>
+      </c>
+      <c r="BJ9">
+        <v>0.82308000000000003</v>
+      </c>
+      <c r="BK9">
+        <v>0.81977999999999995</v>
+      </c>
+      <c r="BL9">
+        <v>0.79225999999999996</v>
+      </c>
+      <c r="BM9">
+        <v>0.78725000000000001</v>
+      </c>
+      <c r="BN9">
+        <v>0.80308000000000002</v>
+      </c>
+      <c r="BO9">
+        <v>0.77390999999999999</v>
+      </c>
+      <c r="BP9">
+        <v>0.79871000000000003</v>
+      </c>
+      <c r="BQ9">
+        <v>0.79615999999999998</v>
+      </c>
+      <c r="BR9">
+        <v>0.78730999999999995</v>
+      </c>
+      <c r="BS9">
+        <v>0.79081999999999997</v>
+      </c>
+      <c r="BT9">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="BU9">
+        <v>0.80313999999999997</v>
+      </c>
+      <c r="BV9">
+        <v>0.80644000000000005</v>
+      </c>
+      <c r="BW9">
+        <v>0.79203999999999997</v>
+      </c>
+      <c r="BX9">
+        <v>0.81086999999999998</v>
+      </c>
+      <c r="BY9">
+        <v>0.78410999999999997</v>
+      </c>
+      <c r="BZ9">
+        <v>0.79881000000000002</v>
+      </c>
+      <c r="CA9">
+        <v>0.81055999999999995</v>
+      </c>
+      <c r="CB9">
+        <v>0.79468000000000005</v>
+      </c>
+      <c r="CC9">
+        <v>0.77861999999999998</v>
+      </c>
+      <c r="CD9">
+        <v>0.78708</v>
+      </c>
+      <c r="CE9">
+        <v>0.80586000000000002</v>
+      </c>
+      <c r="CF9">
+        <v>0.78973000000000004</v>
+      </c>
+      <c r="CG9">
+        <v>0.78983999999999999</v>
+      </c>
+      <c r="CH9">
+        <v>0.78805000000000003</v>
+      </c>
+      <c r="CI9">
+        <v>0.78137000000000001</v>
+      </c>
+      <c r="CJ9">
+        <v>0.79771999999999998</v>
+      </c>
+      <c r="CK9">
+        <v>0.78922999999999999</v>
+      </c>
+      <c r="CL9">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="CM9">
+        <v>0.78547999999999996</v>
+      </c>
+      <c r="CN9">
+        <v>0.80964999999999998</v>
+      </c>
+      <c r="CO9">
+        <v>0.80071000000000003</v>
+      </c>
+      <c r="CP9">
+        <v>0.77425999999999995</v>
+      </c>
+      <c r="CQ9">
+        <v>0.78519000000000005</v>
+      </c>
+      <c r="CR9">
+        <v>0.78474999999999995</v>
+      </c>
+      <c r="CS9">
+        <v>0.79562999999999995</v>
+      </c>
+      <c r="CT9">
+        <v>0.82362999999999997</v>
+      </c>
+      <c r="CU9">
+        <v>0.80086000000000002</v>
+      </c>
+      <c r="CV9">
+        <v>0.78191999999999995</v>
+      </c>
+      <c r="CW9">
+        <v>0.79691730000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.79825000000000002</v>
+      </c>
+      <c r="B10">
+        <v>0.78193000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.78178000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.78207000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.78910999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.80633999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.78102000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.7923</v>
+      </c>
+      <c r="I10">
+        <v>0.80628</v>
+      </c>
+      <c r="J10">
+        <v>0.80874000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.80913999999999997</v>
+      </c>
+      <c r="L10">
+        <v>0.7802</v>
+      </c>
+      <c r="M10">
+        <v>0.79344000000000003</v>
+      </c>
+      <c r="N10">
+        <v>0.79154000000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.78944000000000003</v>
+      </c>
+      <c r="Q10">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="S10">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.78452999999999995</v>
+      </c>
+      <c r="U10">
+        <v>0.79427999999999999</v>
+      </c>
+      <c r="V10">
+        <v>0.76751000000000003</v>
+      </c>
+      <c r="W10">
+        <v>0.78332999999999997</v>
+      </c>
+      <c r="X10">
+        <v>0.78156999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>0.78705999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>0.79962</v>
+      </c>
+      <c r="AA10">
+        <v>0.80079</v>
+      </c>
+      <c r="AB10">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>0.79744000000000004</v>
+      </c>
+      <c r="AD10">
+        <v>0.79491999999999996</v>
+      </c>
+      <c r="AE10">
+        <v>0.77863000000000004</v>
+      </c>
+      <c r="AF10">
+        <v>0.80401</v>
+      </c>
+      <c r="AG10">
+        <v>0.78686999999999996</v>
+      </c>
+      <c r="AH10">
+        <v>0.80796000000000001</v>
+      </c>
+      <c r="AI10">
+        <v>0.80242000000000002</v>
+      </c>
+      <c r="AJ10">
+        <v>0.80118</v>
+      </c>
+      <c r="AK10">
+        <v>0.78359000000000001</v>
+      </c>
+      <c r="AL10">
+        <v>0.77805000000000002</v>
+      </c>
+      <c r="AM10">
+        <v>0.76678000000000002</v>
+      </c>
+      <c r="AN10">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="AO10">
+        <v>0.80059000000000002</v>
+      </c>
+      <c r="AP10">
+        <v>0.75663000000000002</v>
+      </c>
+      <c r="AQ10">
+        <v>0.78761999999999999</v>
+      </c>
+      <c r="AR10">
+        <v>0.80513000000000001</v>
+      </c>
+      <c r="AS10">
+        <v>0.76956000000000002</v>
+      </c>
+      <c r="AT10">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="AU10">
+        <v>0.80188999999999999</v>
+      </c>
+      <c r="AV10">
+        <v>0.79427000000000003</v>
+      </c>
+      <c r="AW10">
+        <v>0.78988999999999998</v>
+      </c>
+      <c r="AX10">
+        <v>0.79942999999999997</v>
+      </c>
+      <c r="AY10">
+        <v>0.75993999999999995</v>
+      </c>
+      <c r="AZ10">
+        <v>0.78510000000000002</v>
+      </c>
+      <c r="BA10">
+        <v>0.78183999999999998</v>
+      </c>
+      <c r="BB10">
+        <v>0.81860999999999995</v>
+      </c>
+      <c r="BC10">
+        <v>0.79229000000000005</v>
+      </c>
+      <c r="BD10">
+        <v>0.79361999999999999</v>
+      </c>
+      <c r="BE10">
+        <v>0.79608999999999996</v>
+      </c>
+      <c r="BF10">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="BG10">
+        <v>0.78156000000000003</v>
+      </c>
+      <c r="BH10">
+        <v>0.79246000000000005</v>
+      </c>
+      <c r="BI10">
+        <v>0.81494</v>
+      </c>
+      <c r="BJ10">
+        <v>0.77614000000000005</v>
+      </c>
+      <c r="BK10">
+        <v>0.80047999999999997</v>
+      </c>
+      <c r="BL10">
+        <v>0.76154999999999995</v>
+      </c>
+      <c r="BM10">
+        <v>0.78771000000000002</v>
+      </c>
+      <c r="BN10">
+        <v>0.81486999999999998</v>
+      </c>
+      <c r="BO10">
+        <v>0.77092000000000005</v>
+      </c>
+      <c r="BP10">
+        <v>0.79605999999999999</v>
+      </c>
+      <c r="BQ10">
+        <v>0.82515000000000005</v>
+      </c>
+      <c r="BR10">
+        <v>0.80613999999999997</v>
+      </c>
+      <c r="BS10">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="BT10">
+        <v>0.77422999999999997</v>
+      </c>
+      <c r="BU10">
+        <v>0.77466999999999997</v>
+      </c>
+      <c r="BV10">
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="BW10">
+        <v>0.80794999999999995</v>
+      </c>
+      <c r="BX10">
+        <v>0.79981999999999998</v>
+      </c>
+      <c r="BY10">
+        <v>0.78136000000000005</v>
+      </c>
+      <c r="BZ10">
+        <v>0.78047</v>
+      </c>
+      <c r="CA10">
+        <v>0.77210999999999996</v>
+      </c>
+      <c r="CB10">
+        <v>0.79313999999999996</v>
+      </c>
+      <c r="CC10">
+        <v>0.81337000000000004</v>
+      </c>
+      <c r="CD10">
+        <v>0.80415999999999999</v>
+      </c>
+      <c r="CE10">
+        <v>0.78288999999999997</v>
+      </c>
+      <c r="CF10">
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="CG10">
+        <v>0.80156000000000005</v>
+      </c>
+      <c r="CH10">
+        <v>0.79529000000000005</v>
+      </c>
+      <c r="CI10">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="CJ10">
+        <v>0.79778000000000004</v>
+      </c>
+      <c r="CK10">
+        <v>0.79171999999999998</v>
+      </c>
+      <c r="CL10">
+        <v>0.78815000000000002</v>
+      </c>
+      <c r="CM10">
+        <v>0.81628000000000001</v>
+      </c>
+      <c r="CN10">
+        <v>0.78069</v>
+      </c>
+      <c r="CO10">
+        <v>0.81091000000000002</v>
+      </c>
+      <c r="CP10">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="CQ10">
+        <v>0.80988000000000004</v>
+      </c>
+      <c r="CR10">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="CS10">
+        <v>0.79825000000000002</v>
+      </c>
+      <c r="CT10">
+        <v>0.79012000000000004</v>
+      </c>
+      <c r="CU10">
+        <v>0.78263000000000005</v>
+      </c>
+      <c r="CV10">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="CW10">
+        <v>0.79093930000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.79030999999999996</v>
+      </c>
+      <c r="B11">
+        <v>0.79944999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.79805999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.78786999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.77337</v>
+      </c>
+      <c r="G11">
+        <v>0.79847999999999997</v>
+      </c>
+      <c r="H11">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.79115999999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.77371999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.80203000000000002</v>
+      </c>
+      <c r="L11">
+        <v>0.78452</v>
+      </c>
+      <c r="M11">
+        <v>0.78073999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.80045999999999995</v>
+      </c>
+      <c r="P11">
+        <v>0.79191</v>
+      </c>
+      <c r="Q11">
+        <v>0.78288999999999997</v>
+      </c>
+      <c r="R11">
+        <v>0.78861000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.79013</v>
+      </c>
+      <c r="T11">
+        <v>0.78947999999999996</v>
+      </c>
+      <c r="U11">
+        <v>0.80147000000000002</v>
+      </c>
+      <c r="V11">
+        <v>0.77981</v>
+      </c>
+      <c r="W11">
+        <v>0.77083000000000002</v>
+      </c>
+      <c r="X11">
+        <v>0.77712999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>0.79317000000000004</v>
+      </c>
+      <c r="Z11">
+        <v>0.77644000000000002</v>
+      </c>
+      <c r="AA11">
+        <v>0.78513999999999995</v>
+      </c>
+      <c r="AB11">
+        <v>0.77390999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="AD11">
+        <v>0.78334000000000004</v>
+      </c>
+      <c r="AE11">
+        <v>0.79303999999999997</v>
+      </c>
+      <c r="AF11">
+        <v>0.78222999999999998</v>
+      </c>
+      <c r="AG11">
+        <v>0.78791</v>
+      </c>
+      <c r="AH11">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="AI11">
+        <v>0.77005000000000001</v>
+      </c>
+      <c r="AJ11">
+        <v>0.76622000000000001</v>
+      </c>
+      <c r="AK11">
+        <v>0.78993000000000002</v>
+      </c>
+      <c r="AL11">
+        <v>0.78363000000000005</v>
+      </c>
+      <c r="AM11">
+        <v>0.77803999999999995</v>
+      </c>
+      <c r="AN11">
+        <v>0.77315</v>
+      </c>
+      <c r="AO11">
+        <v>0.78666999999999998</v>
+      </c>
+      <c r="AP11">
+        <v>0.77263000000000004</v>
+      </c>
+      <c r="AQ11">
+        <v>0.77705999999999997</v>
+      </c>
+      <c r="AR11">
+        <v>0.79444999999999999</v>
+      </c>
+      <c r="AS11">
+        <v>0.77764</v>
+      </c>
+      <c r="AT11">
+        <v>0.78661999999999999</v>
+      </c>
+      <c r="AU11">
+        <v>0.81904999999999994</v>
+      </c>
+      <c r="AV11">
+        <v>0.81530000000000002</v>
+      </c>
+      <c r="AW11">
+        <v>0.79535</v>
+      </c>
+      <c r="AX11">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="AY11">
+        <v>0.78005999999999998</v>
+      </c>
+      <c r="AZ11">
+        <v>0.81774000000000002</v>
+      </c>
+      <c r="BA11">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="BB11">
+        <v>0.79454999999999998</v>
+      </c>
+      <c r="BC11">
+        <v>0.77592000000000005</v>
+      </c>
+      <c r="BD11">
+        <v>0.77273000000000003</v>
+      </c>
+      <c r="BE11">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="BF11">
+        <v>0.78451000000000004</v>
+      </c>
+      <c r="BG11">
+        <v>0.79178000000000004</v>
+      </c>
+      <c r="BH11">
+        <v>0.78619000000000006</v>
+      </c>
+      <c r="BI11">
+        <v>0.78646000000000005</v>
+      </c>
+      <c r="BJ11">
+        <v>0.79151000000000005</v>
+      </c>
+      <c r="BK11">
+        <v>0.78198000000000001</v>
+      </c>
+      <c r="BL11">
+        <v>0.80206</v>
+      </c>
+      <c r="BM11">
+        <v>0.79896</v>
+      </c>
+      <c r="BN11">
+        <v>0.78303</v>
+      </c>
+      <c r="BO11">
+        <v>0.79835999999999996</v>
+      </c>
+      <c r="BP11">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="BQ11">
+        <v>0.77405999999999997</v>
+      </c>
+      <c r="BR11">
+        <v>0.78956999999999999</v>
+      </c>
+      <c r="BS11">
+        <v>0.79934000000000005</v>
+      </c>
+      <c r="BT11">
+        <v>0.77849000000000002</v>
+      </c>
+      <c r="BU11">
+        <v>0.77829999999999999</v>
+      </c>
+      <c r="BV11">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="BW11">
+        <v>0.77454000000000001</v>
+      </c>
+      <c r="BX11">
+        <v>0.78757999999999995</v>
+      </c>
+      <c r="BY11">
+        <v>0.78532999999999997</v>
+      </c>
+      <c r="BZ11">
+        <v>0.77148000000000005</v>
+      </c>
+      <c r="CA11">
+        <v>0.80847999999999998</v>
+      </c>
+      <c r="CB11">
+        <v>0.80554000000000003</v>
+      </c>
+      <c r="CC11">
+        <v>0.78566999999999998</v>
+      </c>
+      <c r="CD11">
+        <v>0.78581000000000001</v>
+      </c>
+      <c r="CE11">
+        <v>0.78554000000000002</v>
+      </c>
+      <c r="CF11">
+        <v>0.80132000000000003</v>
+      </c>
+      <c r="CG11">
+        <v>0.77920999999999996</v>
+      </c>
+      <c r="CH11">
+        <v>0.77</v>
+      </c>
+      <c r="CI11">
+        <v>0.80003000000000002</v>
+      </c>
+      <c r="CJ11">
+        <v>0.79325999999999997</v>
+      </c>
+      <c r="CK11">
+        <v>0.80645999999999995</v>
+      </c>
+      <c r="CL11">
+        <v>0.78947999999999996</v>
+      </c>
+      <c r="CM11">
+        <v>0.80830999999999997</v>
+      </c>
+      <c r="CN11">
+        <v>0.78444999999999998</v>
+      </c>
+      <c r="CO11">
+        <v>0.79879</v>
+      </c>
+      <c r="CP11">
+        <v>0.78756000000000004</v>
+      </c>
+      <c r="CQ11">
+        <v>0.79608999999999996</v>
+      </c>
+      <c r="CR11">
         <v>0.81001999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.78412000000000004</v>
-      </c>
-      <c r="B4">
-        <v>0.83270999999999995</v>
-      </c>
-      <c r="C4">
-        <v>0.80841499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.81679999999999997</v>
-      </c>
-      <c r="B5">
-        <v>0.79625000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.80652499999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.81115000000000004</v>
-      </c>
-      <c r="B6">
-        <v>0.79669000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.80391999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.78761999999999999</v>
-      </c>
-      <c r="B7">
-        <v>0.80684</v>
-      </c>
-      <c r="C7">
-        <v>0.79722999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.78829000000000005</v>
-      </c>
-      <c r="B8">
-        <v>0.78390000000000004</v>
-      </c>
-      <c r="C8">
-        <v>0.78609499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.79547999999999996</v>
-      </c>
-      <c r="B9">
-        <v>0.79905999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.79726999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.78869</v>
-      </c>
-      <c r="B10">
-        <v>0.78824000000000005</v>
-      </c>
-      <c r="C10">
-        <v>0.78846499999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.80861000000000005</v>
-      </c>
-      <c r="B11">
-        <v>0.78673999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.79767500000000002</v>
+      <c r="CS11">
+        <v>0.81101000000000001</v>
+      </c>
+      <c r="CT11">
+        <v>0.80357999999999996</v>
+      </c>
+      <c r="CU11">
+        <v>0.78339000000000003</v>
+      </c>
+      <c r="CV11">
+        <v>0.81315000000000004</v>
+      </c>
+      <c r="CW11">
+        <v>0.78865479999999988</v>
       </c>
     </row>
   </sheetData>
